--- a/excel-barcode-url-fetcher/leroy_data/test_data2.xlsx
+++ b/excel-barcode-url-fetcher/leroy_data/test_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\scripts\excel-barcode-url-fetcher\leroy_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E951A308-8D52-413F-A6AE-5634C2CB3F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AD0DDE-A2DE-4E12-AD2E-F060236EE8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="694">
   <si>
     <t>Item Code</t>
   </si>
@@ -76,6 +76,2037 @@
   </si>
   <si>
     <t>87103784</t>
+  </si>
+  <si>
+    <t>85413539</t>
+  </si>
+  <si>
+    <t>85413549</t>
+  </si>
+  <si>
+    <t>87658027</t>
+  </si>
+  <si>
+    <t>87681450</t>
+  </si>
+  <si>
+    <t>87686804</t>
+  </si>
+  <si>
+    <t>87686811</t>
+  </si>
+  <si>
+    <t>87686810</t>
+  </si>
+  <si>
+    <t>87684445</t>
+  </si>
+  <si>
+    <t>87684453</t>
+  </si>
+  <si>
+    <t>87684395</t>
+  </si>
+  <si>
+    <t>87684405</t>
+  </si>
+  <si>
+    <t>87686803</t>
+  </si>
+  <si>
+    <t>87686816</t>
+  </si>
+  <si>
+    <t>87684447</t>
+  </si>
+  <si>
+    <t>87684450</t>
+  </si>
+  <si>
+    <t>87684460</t>
+  </si>
+  <si>
+    <t>87684399</t>
+  </si>
+  <si>
+    <t>87684397</t>
+  </si>
+  <si>
+    <t>87684396</t>
+  </si>
+  <si>
+    <t>87684398</t>
+  </si>
+  <si>
+    <t>87761736</t>
+  </si>
+  <si>
+    <t>87906660</t>
+  </si>
+  <si>
+    <t>88013989</t>
+  </si>
+  <si>
+    <t>88209547</t>
+  </si>
+  <si>
+    <t>88234339</t>
+  </si>
+  <si>
+    <t>88234340</t>
+  </si>
+  <si>
+    <t>88482931</t>
+  </si>
+  <si>
+    <t>88537825</t>
+  </si>
+  <si>
+    <t>88580676</t>
+  </si>
+  <si>
+    <t>88582251</t>
+  </si>
+  <si>
+    <t>88582258</t>
+  </si>
+  <si>
+    <t>88582262</t>
+  </si>
+  <si>
+    <t>88780357</t>
+  </si>
+  <si>
+    <t>86487422</t>
+  </si>
+  <si>
+    <t>86487482</t>
+  </si>
+  <si>
+    <t>86487480</t>
+  </si>
+  <si>
+    <t>86487473</t>
+  </si>
+  <si>
+    <t>86487485</t>
+  </si>
+  <si>
+    <t>86487479</t>
+  </si>
+  <si>
+    <t>88928407</t>
+  </si>
+  <si>
+    <t>88928408</t>
+  </si>
+  <si>
+    <t>89312285</t>
+  </si>
+  <si>
+    <t>89334850</t>
+  </si>
+  <si>
+    <t>89334976</t>
+  </si>
+  <si>
+    <t>89334978</t>
+  </si>
+  <si>
+    <t>86254415</t>
+  </si>
+  <si>
+    <t>89335631</t>
+  </si>
+  <si>
+    <t>89335697</t>
+  </si>
+  <si>
+    <t>89335696</t>
+  </si>
+  <si>
+    <t>89336109</t>
+  </si>
+  <si>
+    <t>89336098</t>
+  </si>
+  <si>
+    <t>88398895</t>
+  </si>
+  <si>
+    <t>89336099</t>
+  </si>
+  <si>
+    <t>89336192</t>
+  </si>
+  <si>
+    <t>86254420</t>
+  </si>
+  <si>
+    <t>89336108</t>
+  </si>
+  <si>
+    <t>86254412</t>
+  </si>
+  <si>
+    <t>86254421</t>
+  </si>
+  <si>
+    <t>86254423</t>
+  </si>
+  <si>
+    <t>89336193</t>
+  </si>
+  <si>
+    <t>89337091</t>
+  </si>
+  <si>
+    <t>89337096</t>
+  </si>
+  <si>
+    <t>89337098</t>
+  </si>
+  <si>
+    <t>89337099</t>
+  </si>
+  <si>
+    <t>89337094</t>
+  </si>
+  <si>
+    <t>89337080</t>
+  </si>
+  <si>
+    <t>89337074</t>
+  </si>
+  <si>
+    <t>89337081</t>
+  </si>
+  <si>
+    <t>89337075</t>
+  </si>
+  <si>
+    <t>89337065</t>
+  </si>
+  <si>
+    <t>89337064</t>
+  </si>
+  <si>
+    <t>89337063</t>
+  </si>
+  <si>
+    <t>89337073</t>
+  </si>
+  <si>
+    <t>89337069</t>
+  </si>
+  <si>
+    <t>89337071</t>
+  </si>
+  <si>
+    <t>89337077</t>
+  </si>
+  <si>
+    <t>89337070</t>
+  </si>
+  <si>
+    <t>89337076</t>
+  </si>
+  <si>
+    <t>89337079</t>
+  </si>
+  <si>
+    <t>89337072</t>
+  </si>
+  <si>
+    <t>89337067</t>
+  </si>
+  <si>
+    <t>89337078</t>
+  </si>
+  <si>
+    <t>89337313</t>
+  </si>
+  <si>
+    <t>89337292</t>
+  </si>
+  <si>
+    <t>89337293</t>
+  </si>
+  <si>
+    <t>89337294</t>
+  </si>
+  <si>
+    <t>89337310</t>
+  </si>
+  <si>
+    <t>89337311</t>
+  </si>
+  <si>
+    <t>89337312</t>
+  </si>
+  <si>
+    <t>89337291</t>
+  </si>
+  <si>
+    <t>89337290</t>
+  </si>
+  <si>
+    <t>89337718</t>
+  </si>
+  <si>
+    <t>89337715</t>
+  </si>
+  <si>
+    <t>89337722</t>
+  </si>
+  <si>
+    <t>88639501</t>
+  </si>
+  <si>
+    <t>82898575</t>
+  </si>
+  <si>
+    <t>82898593</t>
+  </si>
+  <si>
+    <t>82898597</t>
+  </si>
+  <si>
+    <t>87822814</t>
+  </si>
+  <si>
+    <t>82898574</t>
+  </si>
+  <si>
+    <t>89337843</t>
+  </si>
+  <si>
+    <t>88784369</t>
+  </si>
+  <si>
+    <t>89338224</t>
+  </si>
+  <si>
+    <t>89338220</t>
+  </si>
+  <si>
+    <t>89338222</t>
+  </si>
+  <si>
+    <t>89338244</t>
+  </si>
+  <si>
+    <t>89338247</t>
+  </si>
+  <si>
+    <t>89338248</t>
+  </si>
+  <si>
+    <t>89213055</t>
+  </si>
+  <si>
+    <t>89341180</t>
+  </si>
+  <si>
+    <t>89341183</t>
+  </si>
+  <si>
+    <t>89341184</t>
+  </si>
+  <si>
+    <t>89341198</t>
+  </si>
+  <si>
+    <t>89340845</t>
+  </si>
+  <si>
+    <t>89262316</t>
+  </si>
+  <si>
+    <t>89262320</t>
+  </si>
+  <si>
+    <t>89262324</t>
+  </si>
+  <si>
+    <t>89343088</t>
+  </si>
+  <si>
+    <t>89343097</t>
+  </si>
+  <si>
+    <t>89343099</t>
+  </si>
+  <si>
+    <t>89343100</t>
+  </si>
+  <si>
+    <t>89342788</t>
+  </si>
+  <si>
+    <t>89337083</t>
+  </si>
+  <si>
+    <t>89345960</t>
+  </si>
+  <si>
+    <t>89349457</t>
+  </si>
+  <si>
+    <t>89350157</t>
+  </si>
+  <si>
+    <t>89350160</t>
+  </si>
+  <si>
+    <t>89350163</t>
+  </si>
+  <si>
+    <t>89350198</t>
+  </si>
+  <si>
+    <t>89350270</t>
+  </si>
+  <si>
+    <t>89350286</t>
+  </si>
+  <si>
+    <t>89350165</t>
+  </si>
+  <si>
+    <t>89350166</t>
+  </si>
+  <si>
+    <t>89350261</t>
+  </si>
+  <si>
+    <t>89350262</t>
+  </si>
+  <si>
+    <t>89350267</t>
+  </si>
+  <si>
+    <t>89350269</t>
+  </si>
+  <si>
+    <t>89350158</t>
+  </si>
+  <si>
+    <t>89350159</t>
+  </si>
+  <si>
+    <t>89350281</t>
+  </si>
+  <si>
+    <t>89350283</t>
+  </si>
+  <si>
+    <t>89350284</t>
+  </si>
+  <si>
+    <t>89350860</t>
+  </si>
+  <si>
+    <t>89350858</t>
+  </si>
+  <si>
+    <t>89352015</t>
+  </si>
+  <si>
+    <t>89352019</t>
+  </si>
+  <si>
+    <t>89352023</t>
+  </si>
+  <si>
+    <t>89352029</t>
+  </si>
+  <si>
+    <t>89352836</t>
+  </si>
+  <si>
+    <t>89353777</t>
+  </si>
+  <si>
+    <t>89351096</t>
+  </si>
+  <si>
+    <t>89351099</t>
+  </si>
+  <si>
+    <t>89354369</t>
+  </si>
+  <si>
+    <t>89354371</t>
+  </si>
+  <si>
+    <t>89354368</t>
+  </si>
+  <si>
+    <t>89354198</t>
+  </si>
+  <si>
+    <t>89355688</t>
+  </si>
+  <si>
+    <t>89355689</t>
+  </si>
+  <si>
+    <t>89356051</t>
+  </si>
+  <si>
+    <t>89356054</t>
+  </si>
+  <si>
+    <t>89356055</t>
+  </si>
+  <si>
+    <t>89356049</t>
+  </si>
+  <si>
+    <t>17377276</t>
+  </si>
+  <si>
+    <t>17377283</t>
+  </si>
+  <si>
+    <t>18616332</t>
+  </si>
+  <si>
+    <t>18616640</t>
+  </si>
+  <si>
+    <t>18616675</t>
+  </si>
+  <si>
+    <t>18616682</t>
+  </si>
+  <si>
+    <t>18616780</t>
+  </si>
+  <si>
+    <t>88503040</t>
+  </si>
+  <si>
+    <t>89356300</t>
+  </si>
+  <si>
+    <t>89356301</t>
+  </si>
+  <si>
+    <t>89356050</t>
+  </si>
+  <si>
+    <t>89356226</t>
+  </si>
+  <si>
+    <t>17377213</t>
+  </si>
+  <si>
+    <t>89358438</t>
+  </si>
+  <si>
+    <t>89358435</t>
+  </si>
+  <si>
+    <t>89358648</t>
+  </si>
+  <si>
+    <t>89358632</t>
+  </si>
+  <si>
+    <t>89358636</t>
+  </si>
+  <si>
+    <t>89358697</t>
+  </si>
+  <si>
+    <t>89358654</t>
+  </si>
+  <si>
+    <t>89358695</t>
+  </si>
+  <si>
+    <t>89358635</t>
+  </si>
+  <si>
+    <t>89358633</t>
+  </si>
+  <si>
+    <t>89358675</t>
+  </si>
+  <si>
+    <t>89358436</t>
+  </si>
+  <si>
+    <t>89358437</t>
+  </si>
+  <si>
+    <t>89359480</t>
+  </si>
+  <si>
+    <t>89361508</t>
+  </si>
+  <si>
+    <t>89361799</t>
+  </si>
+  <si>
+    <t>89361800</t>
+  </si>
+  <si>
+    <t>89361801</t>
+  </si>
+  <si>
+    <t>89361802</t>
+  </si>
+  <si>
+    <t>89361805</t>
+  </si>
+  <si>
+    <t>89361806</t>
+  </si>
+  <si>
+    <t>89361807</t>
+  </si>
+  <si>
+    <t>89361809</t>
+  </si>
+  <si>
+    <t>89361810</t>
+  </si>
+  <si>
+    <t>89361811</t>
+  </si>
+  <si>
+    <t>89361813</t>
+  </si>
+  <si>
+    <t>89361814</t>
+  </si>
+  <si>
+    <t>89361815</t>
+  </si>
+  <si>
+    <t>89361816</t>
+  </si>
+  <si>
+    <t>89361817</t>
+  </si>
+  <si>
+    <t>89361820</t>
+  </si>
+  <si>
+    <t>89361823</t>
+  </si>
+  <si>
+    <t>89361822</t>
+  </si>
+  <si>
+    <t>89361819</t>
+  </si>
+  <si>
+    <t>89361462</t>
+  </si>
+  <si>
+    <t>89363394</t>
+  </si>
+  <si>
+    <t>15841434</t>
+  </si>
+  <si>
+    <t>89361827</t>
+  </si>
+  <si>
+    <t>15841805</t>
+  </si>
+  <si>
+    <t>15841791</t>
+  </si>
+  <si>
+    <t>89364156</t>
+  </si>
+  <si>
+    <t>89364157</t>
+  </si>
+  <si>
+    <t>89363989</t>
+  </si>
+  <si>
+    <t>89363990</t>
+  </si>
+  <si>
+    <t>89364167</t>
+  </si>
+  <si>
+    <t>89364214</t>
+  </si>
+  <si>
+    <t>89364215</t>
+  </si>
+  <si>
+    <t>89364186</t>
+  </si>
+  <si>
+    <t>89364187</t>
+  </si>
+  <si>
+    <t>89364189</t>
+  </si>
+  <si>
+    <t>89364349</t>
+  </si>
+  <si>
+    <t>89364340</t>
+  </si>
+  <si>
+    <t>89364342</t>
+  </si>
+  <si>
+    <t>89364344</t>
+  </si>
+  <si>
+    <t>89364367</t>
+  </si>
+  <si>
+    <t>89364904</t>
+  </si>
+  <si>
+    <t>89364903</t>
+  </si>
+  <si>
+    <t>89364407</t>
+  </si>
+  <si>
+    <t>89365062</t>
+  </si>
+  <si>
+    <t>89365064</t>
+  </si>
+  <si>
+    <t>89364907</t>
+  </si>
+  <si>
+    <t>89365188</t>
+  </si>
+  <si>
+    <t>89364910</t>
+  </si>
+  <si>
+    <t>89364912</t>
+  </si>
+  <si>
+    <t>89365330</t>
+  </si>
+  <si>
+    <t>89365871</t>
+  </si>
+  <si>
+    <t>89365872</t>
+  </si>
+  <si>
+    <t>89365873</t>
+  </si>
+  <si>
+    <t>89365874</t>
+  </si>
+  <si>
+    <t>89365875</t>
+  </si>
+  <si>
+    <t>89365331</t>
+  </si>
+  <si>
+    <t>89366243</t>
+  </si>
+  <si>
+    <t>89366251</t>
+  </si>
+  <si>
+    <t>89366253</t>
+  </si>
+  <si>
+    <t>89366255</t>
+  </si>
+  <si>
+    <t>89366244</t>
+  </si>
+  <si>
+    <t>89366249</t>
+  </si>
+  <si>
+    <t>89366250</t>
+  </si>
+  <si>
+    <t>89366257</t>
+  </si>
+  <si>
+    <t>89366265</t>
+  </si>
+  <si>
+    <t>89366259</t>
+  </si>
+  <si>
+    <t>89366261</t>
+  </si>
+  <si>
+    <t>89366263</t>
+  </si>
+  <si>
+    <t>89366267</t>
+  </si>
+  <si>
+    <t>89366269</t>
+  </si>
+  <si>
+    <t>89366273</t>
+  </si>
+  <si>
+    <t>89366275</t>
+  </si>
+  <si>
+    <t>89366277</t>
+  </si>
+  <si>
+    <t>89366286</t>
+  </si>
+  <si>
+    <t>89366289</t>
+  </si>
+  <si>
+    <t>89366292</t>
+  </si>
+  <si>
+    <t>89366283</t>
+  </si>
+  <si>
+    <t>89366284</t>
+  </si>
+  <si>
+    <t>89366285</t>
+  </si>
+  <si>
+    <t>89366318</t>
+  </si>
+  <si>
+    <t>89366317</t>
+  </si>
+  <si>
+    <t>89367319</t>
+  </si>
+  <si>
+    <t>89367505</t>
+  </si>
+  <si>
+    <t>89367506</t>
+  </si>
+  <si>
+    <t>89367838</t>
+  </si>
+  <si>
+    <t>89368073</t>
+  </si>
+  <si>
+    <t>89367839</t>
+  </si>
+  <si>
+    <t>89367840</t>
+  </si>
+  <si>
+    <t>89368070</t>
+  </si>
+  <si>
+    <t>89368235</t>
+  </si>
+  <si>
+    <t>89368075</t>
+  </si>
+  <si>
+    <t>89369055</t>
+  </si>
+  <si>
+    <t>89369056</t>
+  </si>
+  <si>
+    <t>89369061</t>
+  </si>
+  <si>
+    <t>89369062</t>
+  </si>
+  <si>
+    <t>89369063</t>
+  </si>
+  <si>
+    <t>89369064</t>
+  </si>
+  <si>
+    <t>89369065</t>
+  </si>
+  <si>
+    <t>89369066</t>
+  </si>
+  <si>
+    <t>89368077</t>
+  </si>
+  <si>
+    <t>89368078</t>
+  </si>
+  <si>
+    <t>89369071</t>
+  </si>
+  <si>
+    <t>89369081</t>
+  </si>
+  <si>
+    <t>89369082</t>
+  </si>
+  <si>
+    <t>89369083</t>
+  </si>
+  <si>
+    <t>89369084</t>
+  </si>
+  <si>
+    <t>89369073</t>
+  </si>
+  <si>
+    <t>89369078</t>
+  </si>
+  <si>
+    <t>89369087</t>
+  </si>
+  <si>
+    <t>89369094</t>
+  </si>
+  <si>
+    <t>89369095</t>
+  </si>
+  <si>
+    <t>89369096</t>
+  </si>
+  <si>
+    <t>89369097</t>
+  </si>
+  <si>
+    <t>89369098</t>
+  </si>
+  <si>
+    <t>89369099</t>
+  </si>
+  <si>
+    <t>89369100</t>
+  </si>
+  <si>
+    <t>89369103</t>
+  </si>
+  <si>
+    <t>89369104</t>
+  </si>
+  <si>
+    <t>89369088</t>
+  </si>
+  <si>
+    <t>89369090</t>
+  </si>
+  <si>
+    <t>89369093</t>
+  </si>
+  <si>
+    <t>89369116</t>
+  </si>
+  <si>
+    <t>89369122</t>
+  </si>
+  <si>
+    <t>89369123</t>
+  </si>
+  <si>
+    <t>89369118</t>
+  </si>
+  <si>
+    <t>89369119</t>
+  </si>
+  <si>
+    <t>89369120</t>
+  </si>
+  <si>
+    <t>89369124</t>
+  </si>
+  <si>
+    <t>89369128</t>
+  </si>
+  <si>
+    <t>89369125</t>
+  </si>
+  <si>
+    <t>89369126</t>
+  </si>
+  <si>
+    <t>89369127</t>
+  </si>
+  <si>
+    <t>89369638</t>
+  </si>
+  <si>
+    <t>89369639</t>
+  </si>
+  <si>
+    <t>89369843</t>
+  </si>
+  <si>
+    <t>89369844</t>
+  </si>
+  <si>
+    <t>89369636</t>
+  </si>
+  <si>
+    <t>89369637</t>
+  </si>
+  <si>
+    <t>89369845</t>
+  </si>
+  <si>
+    <t>89369849</t>
+  </si>
+  <si>
+    <t>89369850</t>
+  </si>
+  <si>
+    <t>89370044</t>
+  </si>
+  <si>
+    <t>89370048</t>
+  </si>
+  <si>
+    <t>89370050</t>
+  </si>
+  <si>
+    <t>89369846</t>
+  </si>
+  <si>
+    <t>89369847</t>
+  </si>
+  <si>
+    <t>89369848</t>
+  </si>
+  <si>
+    <t>89370052</t>
+  </si>
+  <si>
+    <t>89370059</t>
+  </si>
+  <si>
+    <t>89370060</t>
+  </si>
+  <si>
+    <t>89370061</t>
+  </si>
+  <si>
+    <t>89370063</t>
+  </si>
+  <si>
+    <t>89370053</t>
+  </si>
+  <si>
+    <t>89370056</t>
+  </si>
+  <si>
+    <t>89370057</t>
+  </si>
+  <si>
+    <t>89370225</t>
+  </si>
+  <si>
+    <t>89370068</t>
+  </si>
+  <si>
+    <t>89370069</t>
+  </si>
+  <si>
+    <t>89370074</t>
+  </si>
+  <si>
+    <t>89370258</t>
+  </si>
+  <si>
+    <t>89370054</t>
+  </si>
+  <si>
+    <t>89370055</t>
+  </si>
+  <si>
+    <t>89370071</t>
+  </si>
+  <si>
+    <t>89370072</t>
+  </si>
+  <si>
+    <t>89370251</t>
+  </si>
+  <si>
+    <t>89370252</t>
+  </si>
+  <si>
+    <t>89370463</t>
+  </si>
+  <si>
+    <t>89371228</t>
+  </si>
+  <si>
+    <t>89371222</t>
+  </si>
+  <si>
+    <t>89371230</t>
+  </si>
+  <si>
+    <t>89370638</t>
+  </si>
+  <si>
+    <t>89371679</t>
+  </si>
+  <si>
+    <t>89371682</t>
+  </si>
+  <si>
+    <t>89371684</t>
+  </si>
+  <si>
+    <t>89371946</t>
+  </si>
+  <si>
+    <t>89371947</t>
+  </si>
+  <si>
+    <t>89372104</t>
+  </si>
+  <si>
+    <t>89371687</t>
+  </si>
+  <si>
+    <t>89372109</t>
+  </si>
+  <si>
+    <t>89372112</t>
+  </si>
+  <si>
+    <t>89372108</t>
+  </si>
+  <si>
+    <t>89372110</t>
+  </si>
+  <si>
+    <t>89372111</t>
+  </si>
+  <si>
+    <t>89372081</t>
+  </si>
+  <si>
+    <t>89372082</t>
+  </si>
+  <si>
+    <t>89372085</t>
+  </si>
+  <si>
+    <t>89372824</t>
+  </si>
+  <si>
+    <t>89372091</t>
+  </si>
+  <si>
+    <t>89372363</t>
+  </si>
+  <si>
+    <t>89372463</t>
+  </si>
+  <si>
+    <t>89372471</t>
+  </si>
+  <si>
+    <t>89372507</t>
+  </si>
+  <si>
+    <t>89372176</t>
+  </si>
+  <si>
+    <t>89372254</t>
+  </si>
+  <si>
+    <t>89372481</t>
+  </si>
+  <si>
+    <t>89372556</t>
+  </si>
+  <si>
+    <t>89372558</t>
+  </si>
+  <si>
+    <t>89372495</t>
+  </si>
+  <si>
+    <t>89372533</t>
+  </si>
+  <si>
+    <t>89372546</t>
+  </si>
+  <si>
+    <t>89372559</t>
+  </si>
+  <si>
+    <t>89372564</t>
+  </si>
+  <si>
+    <t>89373556</t>
+  </si>
+  <si>
+    <t>89373557</t>
+  </si>
+  <si>
+    <t>89373427</t>
+  </si>
+  <si>
+    <t>89373555</t>
+  </si>
+  <si>
+    <t>89373558</t>
+  </si>
+  <si>
+    <t>89373559</t>
+  </si>
+  <si>
+    <t>89374217</t>
+  </si>
+  <si>
+    <t>89374215</t>
+  </si>
+  <si>
+    <t>89374216</t>
+  </si>
+  <si>
+    <t>89375345</t>
+  </si>
+  <si>
+    <t>89375344</t>
+  </si>
+  <si>
+    <t>89375906</t>
+  </si>
+  <si>
+    <t>89375912</t>
+  </si>
+  <si>
+    <t>89375646</t>
+  </si>
+  <si>
+    <t>89376094</t>
+  </si>
+  <si>
+    <t>89375630</t>
+  </si>
+  <si>
+    <t>89375631</t>
+  </si>
+  <si>
+    <t>89376553</t>
+  </si>
+  <si>
+    <t>89375920</t>
+  </si>
+  <si>
+    <t>89376555</t>
+  </si>
+  <si>
+    <t>89377103</t>
+  </si>
+  <si>
+    <t>89377111</t>
+  </si>
+  <si>
+    <t>89377112</t>
+  </si>
+  <si>
+    <t>89377113</t>
+  </si>
+  <si>
+    <t>89377108</t>
+  </si>
+  <si>
+    <t>89377110</t>
+  </si>
+  <si>
+    <t>89377102</t>
+  </si>
+  <si>
+    <t>89377011</t>
+  </si>
+  <si>
+    <t>89377024</t>
+  </si>
+  <si>
+    <t>89377012</t>
+  </si>
+  <si>
+    <t>89377022</t>
+  </si>
+  <si>
+    <t>89377023</t>
+  </si>
+  <si>
+    <t>89377026</t>
+  </si>
+  <si>
+    <t>89377032</t>
+  </si>
+  <si>
+    <t>89377050</t>
+  </si>
+  <si>
+    <t>89377027</t>
+  </si>
+  <si>
+    <t>89377028</t>
+  </si>
+  <si>
+    <t>89377031</t>
+  </si>
+  <si>
+    <t>89377051</t>
+  </si>
+  <si>
+    <t>89377057</t>
+  </si>
+  <si>
+    <t>89377058</t>
+  </si>
+  <si>
+    <t>89377059</t>
+  </si>
+  <si>
+    <t>89377060</t>
+  </si>
+  <si>
+    <t>89377052</t>
+  </si>
+  <si>
+    <t>89377053</t>
+  </si>
+  <si>
+    <t>89377056</t>
+  </si>
+  <si>
+    <t>89377061</t>
+  </si>
+  <si>
+    <t>89377065</t>
+  </si>
+  <si>
+    <t>89377066</t>
+  </si>
+  <si>
+    <t>89377068</t>
+  </si>
+  <si>
+    <t>89377062</t>
+  </si>
+  <si>
+    <t>89377063</t>
+  </si>
+  <si>
+    <t>89377064</t>
+  </si>
+  <si>
+    <t>89377075</t>
+  </si>
+  <si>
+    <t>89377082</t>
+  </si>
+  <si>
+    <t>89377083</t>
+  </si>
+  <si>
+    <t>89377131</t>
+  </si>
+  <si>
+    <t>89377133</t>
+  </si>
+  <si>
+    <t>89377135</t>
+  </si>
+  <si>
+    <t>89377136</t>
+  </si>
+  <si>
+    <t>89377076</t>
+  </si>
+  <si>
+    <t>89377080</t>
+  </si>
+  <si>
+    <t>89377081</t>
+  </si>
+  <si>
+    <t>89377138</t>
+  </si>
+  <si>
+    <t>89377139</t>
+  </si>
+  <si>
+    <t>89377143</t>
+  </si>
+  <si>
+    <t>89377144</t>
+  </si>
+  <si>
+    <t>89377544</t>
+  </si>
+  <si>
+    <t>89377580</t>
+  </si>
+  <si>
+    <t>89377550</t>
+  </si>
+  <si>
+    <t>89377575</t>
+  </si>
+  <si>
+    <t>89377581</t>
+  </si>
+  <si>
+    <t>89377582</t>
+  </si>
+  <si>
+    <t>89377571</t>
+  </si>
+  <si>
+    <t>89377585</t>
+  </si>
+  <si>
+    <t>89377706</t>
+  </si>
+  <si>
+    <t>89377708</t>
+  </si>
+  <si>
+    <t>89377104</t>
+  </si>
+  <si>
+    <t>89377106</t>
+  </si>
+  <si>
+    <t>89377114</t>
+  </si>
+  <si>
+    <t>89377116</t>
+  </si>
+  <si>
+    <t>89377117</t>
+  </si>
+  <si>
+    <t>89377118</t>
+  </si>
+  <si>
+    <t>89377119</t>
+  </si>
+  <si>
+    <t>89377120</t>
+  </si>
+  <si>
+    <t>89377121</t>
+  </si>
+  <si>
+    <t>89377122</t>
+  </si>
+  <si>
+    <t>89377123</t>
+  </si>
+  <si>
+    <t>89377124</t>
+  </si>
+  <si>
+    <t>89377125</t>
+  </si>
+  <si>
+    <t>89377126</t>
+  </si>
+  <si>
+    <t>89377128</t>
+  </si>
+  <si>
+    <t>89377093</t>
+  </si>
+  <si>
+    <t>89377090</t>
+  </si>
+  <si>
+    <t>89377091</t>
+  </si>
+  <si>
+    <t>89377130</t>
+  </si>
+  <si>
+    <t>89377987</t>
+  </si>
+  <si>
+    <t>89377988</t>
+  </si>
+  <si>
+    <t>89377129</t>
+  </si>
+  <si>
+    <t>89377985</t>
+  </si>
+  <si>
+    <t>89377986</t>
+  </si>
+  <si>
+    <t>89378004</t>
+  </si>
+  <si>
+    <t>89378008</t>
+  </si>
+  <si>
+    <t>89378009</t>
+  </si>
+  <si>
+    <t>89378005</t>
+  </si>
+  <si>
+    <t>89378006</t>
+  </si>
+  <si>
+    <t>89378007</t>
+  </si>
+  <si>
+    <t>89378010</t>
+  </si>
+  <si>
+    <t>89378357</t>
+  </si>
+  <si>
+    <t>89378358</t>
+  </si>
+  <si>
+    <t>89378504</t>
+  </si>
+  <si>
+    <t>89378034</t>
+  </si>
+  <si>
+    <t>89378505</t>
+  </si>
+  <si>
+    <t>89378506</t>
+  </si>
+  <si>
+    <t>89378507</t>
+  </si>
+  <si>
+    <t>89378508</t>
+  </si>
+  <si>
+    <t>89376364</t>
+  </si>
+  <si>
+    <t>89376381</t>
+  </si>
+  <si>
+    <t>89378512</t>
+  </si>
+  <si>
+    <t>89378623</t>
+  </si>
+  <si>
+    <t>89379172</t>
+  </si>
+  <si>
+    <t>89379173</t>
+  </si>
+  <si>
+    <t>89379179</t>
+  </si>
+  <si>
+    <t>89379181</t>
+  </si>
+  <si>
+    <t>89379188</t>
+  </si>
+  <si>
+    <t>89379196</t>
+  </si>
+  <si>
+    <t>89379198</t>
+  </si>
+  <si>
+    <t>89379199</t>
+  </si>
+  <si>
+    <t>89379201</t>
+  </si>
+  <si>
+    <t>89379205</t>
+  </si>
+  <si>
+    <t>89379206</t>
+  </si>
+  <si>
+    <t>89379207</t>
+  </si>
+  <si>
+    <t>89379212</t>
+  </si>
+  <si>
+    <t>89379216</t>
+  </si>
+  <si>
+    <t>89379218</t>
+  </si>
+  <si>
+    <t>89379219</t>
+  </si>
+  <si>
+    <t>89379220</t>
+  </si>
+  <si>
+    <t>89379227</t>
+  </si>
+  <si>
+    <t>89379230</t>
+  </si>
+  <si>
+    <t>89379231</t>
+  </si>
+  <si>
+    <t>89379232</t>
+  </si>
+  <si>
+    <t>89379233</t>
+  </si>
+  <si>
+    <t>89379237</t>
+  </si>
+  <si>
+    <t>89379242</t>
+  </si>
+  <si>
+    <t>89379245</t>
+  </si>
+  <si>
+    <t>89379247</t>
+  </si>
+  <si>
+    <t>89379249</t>
+  </si>
+  <si>
+    <t>89376367</t>
+  </si>
+  <si>
+    <t>89379168</t>
+  </si>
+  <si>
+    <t>89379169</t>
+  </si>
+  <si>
+    <t>89379261</t>
+  </si>
+  <si>
+    <t>89379263</t>
+  </si>
+  <si>
+    <t>89379264</t>
+  </si>
+  <si>
+    <t>89379265</t>
+  </si>
+  <si>
+    <t>89379268</t>
+  </si>
+  <si>
+    <t>89379271</t>
+  </si>
+  <si>
+    <t>89379258</t>
+  </si>
+  <si>
+    <t>89379251</t>
+  </si>
+  <si>
+    <t>89379253</t>
+  </si>
+  <si>
+    <t>89379277</t>
+  </si>
+  <si>
+    <t>89379681</t>
+  </si>
+  <si>
+    <t>89379186</t>
+  </si>
+  <si>
+    <t>89379187</t>
+  </si>
+  <si>
+    <t>89379190</t>
+  </si>
+  <si>
+    <t>89379192</t>
+  </si>
+  <si>
+    <t>89379200</t>
+  </si>
+  <si>
+    <t>89379238</t>
+  </si>
+  <si>
+    <t>89379176</t>
+  </si>
+  <si>
+    <t>89379685</t>
+  </si>
+  <si>
+    <t>89379155</t>
+  </si>
+  <si>
+    <t>89379257</t>
+  </si>
+  <si>
+    <t>89379266</t>
+  </si>
+  <si>
+    <t>89379267</t>
+  </si>
+  <si>
+    <t>89381701</t>
+  </si>
+  <si>
+    <t>89381700</t>
+  </si>
+  <si>
+    <t>89383161</t>
+  </si>
+  <si>
+    <t>89383135</t>
+  </si>
+  <si>
+    <t>89383158</t>
+  </si>
+  <si>
+    <t>89383164</t>
+  </si>
+  <si>
+    <t>89383169</t>
+  </si>
+  <si>
+    <t>89383180</t>
+  </si>
+  <si>
+    <t>89383182</t>
+  </si>
+  <si>
+    <t>89383175</t>
+  </si>
+  <si>
+    <t>89383375</t>
+  </si>
+  <si>
+    <t>89383379</t>
+  </si>
+  <si>
+    <t>89383380</t>
+  </si>
+  <si>
+    <t>89383381</t>
+  </si>
+  <si>
+    <t>89383382</t>
+  </si>
+  <si>
+    <t>89383383</t>
+  </si>
+  <si>
+    <t>89383384</t>
+  </si>
+  <si>
+    <t>89383385</t>
+  </si>
+  <si>
+    <t>89383376</t>
+  </si>
+  <si>
+    <t>89383377</t>
+  </si>
+  <si>
+    <t>89383378</t>
+  </si>
+  <si>
+    <t>89383386</t>
+  </si>
+  <si>
+    <t>89383390</t>
+  </si>
+  <si>
+    <t>89383391</t>
+  </si>
+  <si>
+    <t>89383392</t>
+  </si>
+  <si>
+    <t>89383393</t>
+  </si>
+  <si>
+    <t>89383394</t>
+  </si>
+  <si>
+    <t>89383395</t>
+  </si>
+  <si>
+    <t>89383396</t>
+  </si>
+  <si>
+    <t>89383397</t>
+  </si>
+  <si>
+    <t>89383398</t>
+  </si>
+  <si>
+    <t>89383399</t>
+  </si>
+  <si>
+    <t>89383427</t>
+  </si>
+  <si>
+    <t>89383428</t>
+  </si>
+  <si>
+    <t>89383435</t>
+  </si>
+  <si>
+    <t>89383387</t>
+  </si>
+  <si>
+    <t>89384322</t>
+  </si>
+  <si>
+    <t>89384323</t>
+  </si>
+  <si>
+    <t>89383388</t>
+  </si>
+  <si>
+    <t>89383389</t>
+  </si>
+  <si>
+    <t>89384213</t>
+  </si>
+  <si>
+    <t>89384692</t>
+  </si>
+  <si>
+    <t>89385135</t>
+  </si>
+  <si>
+    <t>89385136</t>
+  </si>
+  <si>
+    <t>89385734</t>
+  </si>
+  <si>
+    <t>89385735</t>
+  </si>
+  <si>
+    <t>89385043</t>
+  </si>
+  <si>
+    <t>89385044</t>
+  </si>
+  <si>
+    <t>89385125</t>
+  </si>
+  <si>
+    <t>89385752</t>
+  </si>
+  <si>
+    <t>89385753</t>
+  </si>
+  <si>
+    <t>89385754</t>
+  </si>
+  <si>
+    <t>89385755</t>
+  </si>
+  <si>
+    <t>89385758</t>
+  </si>
+  <si>
+    <t>89385759</t>
+  </si>
+  <si>
+    <t>89385761</t>
+  </si>
+  <si>
+    <t>89385763</t>
+  </si>
+  <si>
+    <t>89385764</t>
+  </si>
+  <si>
+    <t>89385766</t>
+  </si>
+  <si>
+    <t>89385768</t>
+  </si>
+  <si>
+    <t>89385770</t>
+  </si>
+  <si>
+    <t>89385774</t>
+  </si>
+  <si>
+    <t>89385749</t>
+  </si>
+  <si>
+    <t>89385732</t>
+  </si>
+  <si>
+    <t>89385736</t>
+  </si>
+  <si>
+    <t>89385737</t>
+  </si>
+  <si>
+    <t>89385738</t>
+  </si>
+  <si>
+    <t>89385739</t>
+  </si>
+  <si>
+    <t>89385741</t>
+  </si>
+  <si>
+    <t>89385742</t>
+  </si>
+  <si>
+    <t>89385744</t>
+  </si>
+  <si>
+    <t>89385757</t>
+  </si>
+  <si>
+    <t>89385750</t>
+  </si>
+  <si>
+    <t>89389082</t>
+  </si>
+  <si>
+    <t>89389085</t>
+  </si>
+  <si>
+    <t>89385751</t>
+  </si>
+  <si>
+    <t>89385720</t>
+  </si>
+  <si>
+    <t>89387047</t>
+  </si>
+  <si>
+    <t>89389099</t>
+  </si>
+  <si>
+    <t>89389101</t>
+  </si>
+  <si>
+    <t>89389102</t>
+  </si>
+  <si>
+    <t>89389096</t>
+  </si>
+  <si>
+    <t>89389097</t>
+  </si>
+  <si>
+    <t>89389100</t>
+  </si>
+  <si>
+    <t>89389094</t>
+  </si>
+  <si>
+    <t>89389098</t>
+  </si>
+  <si>
+    <t>89389229</t>
+  </si>
+  <si>
+    <t>89389233</t>
+  </si>
+  <si>
+    <t>89389234</t>
+  </si>
+  <si>
+    <t>89389230</t>
+  </si>
+  <si>
+    <t>89389231</t>
+  </si>
+  <si>
+    <t>89389232</t>
+  </si>
+  <si>
+    <t>89389265</t>
+  </si>
+  <si>
+    <t>89389266</t>
+  </si>
+  <si>
+    <t>89389269</t>
+  </si>
+  <si>
+    <t>89389267</t>
+  </si>
+  <si>
+    <t>89390630</t>
+  </si>
+  <si>
+    <t>89392389</t>
+  </si>
+  <si>
+    <t>89392390</t>
+  </si>
+  <si>
+    <t>89392391</t>
+  </si>
+  <si>
+    <t>89392392</t>
+  </si>
+  <si>
+    <t>89392393</t>
+  </si>
+  <si>
+    <t>89392394</t>
+  </si>
+  <si>
+    <t>89392395</t>
+  </si>
+  <si>
+    <t>89389268</t>
+  </si>
+  <si>
+    <t>89393834</t>
+  </si>
+  <si>
+    <t>89393838</t>
+  </si>
+  <si>
+    <t>89393839</t>
+  </si>
+  <si>
+    <t>89393840</t>
+  </si>
+  <si>
+    <t>89390668</t>
+  </si>
+  <si>
+    <t>89390663</t>
+  </si>
+  <si>
+    <t>89393833</t>
   </si>
 </sst>
 </file>
@@ -411,10 +2442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +2453,7 @@
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,6 +2536,3391 @@
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
